--- a/new_sections.xlsx
+++ b/new_sections.xlsx
@@ -1,14 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\Osdag\dev\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF7BD6A8-5182-47D1-B98A-DF2A18874500}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="I_Sections" sheetId="1" r:id="rId3"/>
-    <sheet state="visible" name="Angle" sheetId="2" r:id="rId4"/>
-    <sheet state="visible" name="Channel" sheetId="3" r:id="rId5"/>
+    <sheet name="I_Sections" sheetId="1" r:id="rId1"/>
+    <sheet name="Angle" sheetId="2" r:id="rId2"/>
+    <sheet name="Channel" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -1041,88 +1050,381 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <name val="Calibri"/>
     </font>
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="2">
-    <border/>
     <border>
+      <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:T706"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="8.71"/>
-    <col customWidth="1" min="2" max="2" width="18.71"/>
-    <col customWidth="1" min="3" max="26" width="8.71"/>
+    <col min="1" max="1" width="8.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" customWidth="1"/>
+    <col min="3" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:20" ht="14.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1184,9 +1486,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:20" ht="15.75" customHeight="1">
       <c r="A2" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -1246,9 +1548,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
+    <row r="3" spans="1:20" ht="15.75" customHeight="1">
       <c r="A3" s="2">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
         <v>49</v>
@@ -1308,9 +1610,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
+    <row r="4" spans="1:20" ht="15.75" customHeight="1">
       <c r="A4" s="2">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
         <v>85</v>
@@ -1370,9 +1672,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
+    <row r="5" spans="1:20" ht="15.75" customHeight="1">
       <c r="A5" s="2">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
         <v>109</v>
@@ -1432,9 +1734,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
+    <row r="6" spans="1:20" ht="15.75" customHeight="1">
       <c r="A6" s="2">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
         <v>151</v>
@@ -1494,9 +1796,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:20" ht="15.75" customHeight="1">
       <c r="A7" s="2">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
         <v>191</v>
@@ -1556,9 +1858,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
+    <row r="8" spans="1:20" ht="15.75" customHeight="1">
       <c r="A8" s="2">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
         <v>229</v>
@@ -1618,9 +1920,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
+    <row r="9" spans="1:20" ht="15.75" customHeight="1">
       <c r="A9" s="2">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
         <v>256</v>
@@ -1680,9 +1982,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
+    <row r="10" spans="1:20" ht="15.75" customHeight="1">
       <c r="A10" s="2">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
         <v>290</v>
@@ -1742,9 +2044,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" ht="15.75" customHeight="1">
+    <row r="11" spans="1:20" ht="15.75" customHeight="1">
       <c r="A11" s="2">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
         <v>313</v>
@@ -1804,9 +2106,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" ht="15.75" customHeight="1">
+    <row r="12" spans="1:20" ht="15.75" customHeight="1">
       <c r="A12" s="2">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
         <v>327</v>
@@ -1866,10 +2168,10 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" ht="15.75" customHeight="1"/>
-    <row r="14" ht="15.75" customHeight="1"/>
-    <row r="15" ht="15.75" customHeight="1"/>
-    <row r="16" ht="15.75" customHeight="1"/>
+    <row r="13" spans="1:20" ht="15.75" customHeight="1"/>
+    <row r="14" spans="1:20" ht="15.75" customHeight="1"/>
+    <row r="15" spans="1:20" ht="15.75" customHeight="1"/>
+    <row r="16" spans="1:20" ht="15.75" customHeight="1"/>
     <row r="17" ht="15.75" customHeight="1"/>
     <row r="18" ht="15.75" customHeight="1"/>
     <row r="19" ht="15.75" customHeight="1"/>
@@ -2561,24 +2863,25 @@
     <row r="705" ht="15.75" customHeight="1"/>
     <row r="706" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:Z7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="Y1" sqref="Y1:AA8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:26">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2654,9 +2957,9 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:26">
       <c r="A2" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>48</v>
@@ -2730,9 +3033,9 @@
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:26">
       <c r="A3" s="3">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>111</v>
@@ -2806,9 +3109,9 @@
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:26">
       <c r="A4" s="3">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>153</v>
@@ -2882,9 +3185,9 @@
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:26">
       <c r="A5" s="3">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>199</v>
@@ -2958,9 +3261,9 @@
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:26">
       <c r="A6" s="3">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>247</v>
@@ -3034,9 +3337,9 @@
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:26">
       <c r="A7" s="3">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>286</v>
@@ -3109,21 +3412,22 @@
       <c r="Z7" s="1"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:Z5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:26">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3193,9 +3497,9 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:26">
       <c r="A2" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>66</v>
@@ -3263,9 +3567,9 @@
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:26">
       <c r="A3" s="3">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>114</v>
@@ -3333,9 +3637,9 @@
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:26">
       <c r="A4" s="3">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>157</v>
@@ -3403,9 +3707,9 @@
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:26">
       <c r="A5" s="3">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>206</v>
@@ -3474,6 +3778,6 @@
       <c r="Z5" s="1"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/new_sections.xlsx
+++ b/new_sections.xlsx
@@ -8,21 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\Osdag\dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF7BD6A8-5182-47D1-B98A-DF2A18874500}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6FF1D2E-EC3A-4CFE-B979-610418DBE712}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2376" yWindow="504" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="I_Sections" sheetId="1" r:id="rId1"/>
-    <sheet name="Angle" sheetId="2" r:id="rId2"/>
-    <sheet name="Channel" sheetId="3" r:id="rId3"/>
+    <sheet name="Channel" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="250">
   <si>
     <t>Id</t>
   </si>
@@ -84,33 +83,9 @@
     <t>Source</t>
   </si>
   <si>
-    <t>AXB</t>
-  </si>
-  <si>
-    <t>t</t>
-  </si>
-  <si>
-    <t>Cz</t>
-  </si>
-  <si>
     <t>Cy</t>
   </si>
   <si>
-    <t>Tan?</t>
-  </si>
-  <si>
-    <t>Iu(max)</t>
-  </si>
-  <si>
-    <t>Iv(min)</t>
-  </si>
-  <si>
-    <t>ru(max)</t>
-  </si>
-  <si>
-    <t>rv(min)</t>
-  </si>
-  <si>
     <t>UB 203 x 133 x 25</t>
   </si>
   <si>
@@ -168,27 +143,15 @@
     <t>IS808_Rev</t>
   </si>
   <si>
-    <t>30 20 X 3</t>
-  </si>
-  <si>
     <t>WPB 100x100x20.4</t>
   </si>
   <si>
-    <t>1.1</t>
-  </si>
-  <si>
     <t>20.44</t>
   </si>
   <si>
-    <t>1.41</t>
-  </si>
-  <si>
     <t>26.0</t>
   </si>
   <si>
-    <t>30x20</t>
-  </si>
-  <si>
     <t>100.0</t>
   </si>
   <si>
@@ -198,27 +161,15 @@
     <t>6.0</t>
   </si>
   <si>
-    <t>4.5</t>
-  </si>
-  <si>
     <t>10.0</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>0.98</t>
-  </si>
-  <si>
     <t>1.2</t>
   </si>
   <si>
-    <t>0.54</t>
-  </si>
-  <si>
-    <t>0.43</t>
-  </si>
-  <si>
     <t>449.5</t>
   </si>
   <si>
@@ -231,9 +182,6 @@
     <t>5.8</t>
   </si>
   <si>
-    <t>0.4</t>
-  </si>
-  <si>
     <t>4.16</t>
   </si>
   <si>
@@ -249,9 +197,6 @@
     <t>100</t>
   </si>
   <si>
-    <t>0.93</t>
-  </si>
-  <si>
     <t>33.4</t>
   </si>
   <si>
@@ -267,18 +212,9 @@
     <t>5.1</t>
   </si>
   <si>
-    <t>0.6</t>
-  </si>
-  <si>
-    <t>0.3</t>
-  </si>
-  <si>
     <t>91.5</t>
   </si>
   <si>
-    <t>0.5</t>
-  </si>
-  <si>
     <t>WPB 100x100x41.8</t>
   </si>
   <si>
@@ -357,27 +293,15 @@
     <t>171.11</t>
   </si>
   <si>
-    <t>45 30 X 3</t>
-  </si>
-  <si>
     <t>218.0</t>
   </si>
   <si>
-    <t>1.7</t>
-  </si>
-  <si>
     <t>LC 400</t>
   </si>
   <si>
-    <t>2.18</t>
-  </si>
-  <si>
     <t>450.0</t>
   </si>
   <si>
-    <t>45x30</t>
-  </si>
-  <si>
     <t>300.0</t>
   </si>
   <si>
@@ -396,51 +320,30 @@
     <t>58.3</t>
   </si>
   <si>
-    <t>0.74</t>
-  </si>
-  <si>
     <t>400</t>
   </si>
   <si>
-    <t>0.44</t>
-  </si>
-  <si>
     <t>8.0</t>
   </si>
   <si>
-    <t>1.5</t>
-  </si>
-  <si>
     <t>96</t>
   </si>
   <si>
     <t>79887.5</t>
   </si>
   <si>
-    <t>1.43</t>
-  </si>
-  <si>
     <t>11713.96</t>
   </si>
   <si>
-    <t>0.84</t>
-  </si>
-  <si>
     <t>2.37</t>
   </si>
   <si>
     <t>19.14</t>
   </si>
   <si>
-    <t>1.44</t>
-  </si>
-  <si>
     <t>14000.0</t>
   </si>
   <si>
-    <t>0.83</t>
-  </si>
-  <si>
     <t>7.33</t>
   </si>
   <si>
@@ -456,18 +359,12 @@
     <t>780.93</t>
   </si>
   <si>
-    <t>0.7</t>
-  </si>
-  <si>
     <t>2.81</t>
   </si>
   <si>
     <t>3982.37</t>
   </si>
   <si>
-    <t>2.6</t>
-  </si>
-  <si>
     <t>701.0</t>
   </si>
   <si>
@@ -483,24 +380,15 @@
     <t>149.89</t>
   </si>
   <si>
-    <t>60 40 X 8</t>
-  </si>
-  <si>
     <t>190.9</t>
   </si>
   <si>
     <t>670.0</t>
   </si>
   <si>
-    <t>7.37</t>
-  </si>
-  <si>
     <t>MC 200</t>
   </si>
   <si>
-    <t>60x40</t>
-  </si>
-  <si>
     <t>13.0</t>
   </si>
   <si>
@@ -516,24 +404,15 @@
     <t>200</t>
   </si>
   <si>
-    <t>2.07</t>
-  </si>
-  <si>
     <t>142720.5</t>
   </si>
   <si>
-    <t>1.12</t>
-  </si>
-  <si>
     <t>75</t>
   </si>
   <si>
     <t>7666.07</t>
   </si>
   <si>
-    <t>0.42</t>
-  </si>
-  <si>
     <t>6.2</t>
   </si>
   <si>
@@ -549,9 +428,6 @@
     <t>6.34</t>
   </si>
   <si>
-    <t>8.8</t>
-  </si>
-  <si>
     <t>4260.31</t>
   </si>
   <si>
@@ -573,9 +449,6 @@
     <t>2.2</t>
   </si>
   <si>
-    <t>1.84</t>
-  </si>
-  <si>
     <t>799.71</t>
   </si>
   <si>
@@ -588,9 +461,6 @@
     <t>8.02</t>
   </si>
   <si>
-    <t>6.4</t>
-  </si>
-  <si>
     <t>2.22</t>
   </si>
   <si>
@@ -600,9 +470,6 @@
     <t>MB 175</t>
   </si>
   <si>
-    <t>11.7</t>
-  </si>
-  <si>
     <t>19.5</t>
   </si>
   <si>
@@ -621,21 +488,12 @@
     <t>85.0</t>
   </si>
   <si>
-    <t>75 50X 10</t>
-  </si>
-  <si>
     <t>98</t>
   </si>
   <si>
-    <t>11.52</t>
-  </si>
-  <si>
     <t>1264.0</t>
   </si>
   <si>
-    <t>75x50</t>
-  </si>
-  <si>
     <t>74.2</t>
   </si>
   <si>
@@ -645,9 +503,6 @@
     <t>MCP 300</t>
   </si>
   <si>
-    <t>6.5</t>
-  </si>
-  <si>
     <t>1.73</t>
   </si>
   <si>
@@ -663,24 +518,12 @@
     <t>300</t>
   </si>
   <si>
-    <t>1.39</t>
-  </si>
-  <si>
     <t>13.6</t>
   </si>
   <si>
-    <t>61.5</t>
-  </si>
-  <si>
-    <t>21.8</t>
-  </si>
-  <si>
     <t>166.0</t>
   </si>
   <si>
-    <t>61.2</t>
-  </si>
-  <si>
     <t>7.0</t>
   </si>
   <si>
@@ -690,36 +533,21 @@
     <t>2.58</t>
   </si>
   <si>
-    <t>22.1</t>
-  </si>
-  <si>
-    <t>2.31</t>
-  </si>
-  <si>
     <t>6420.0</t>
   </si>
   <si>
-    <t>1.38</t>
-  </si>
-  <si>
     <t>352.0</t>
   </si>
   <si>
     <t>11.78</t>
   </si>
   <si>
-    <t>2.3</t>
-  </si>
-  <si>
     <t>WPB 900x300x291.5</t>
   </si>
   <si>
     <t>291.45</t>
   </si>
   <si>
-    <t>12.5</t>
-  </si>
-  <si>
     <t>371.3</t>
   </si>
   <si>
@@ -738,9 +566,6 @@
     <t>18.5</t>
   </si>
   <si>
-    <t>22.9</t>
-  </si>
-  <si>
     <t>502.5</t>
   </si>
   <si>
@@ -765,108 +590,48 @@
     <t>6.52</t>
   </si>
   <si>
-    <t>150 90 X X 15</t>
-  </si>
-  <si>
     <t>10979.21</t>
   </si>
   <si>
     <t>1053.54</t>
   </si>
   <si>
-    <t>26.6</t>
-  </si>
-  <si>
     <t>12584.1</t>
   </si>
   <si>
-    <t>33.9</t>
-  </si>
-  <si>
     <t>1658.34</t>
   </si>
   <si>
-    <t>150x90</t>
-  </si>
-  <si>
-    <t>15.0</t>
-  </si>
-  <si>
     <t>MB 550</t>
   </si>
   <si>
-    <t>5.21</t>
-  </si>
-  <si>
     <t>104.0</t>
   </si>
   <si>
-    <t>2.27</t>
-  </si>
-  <si>
     <t>132.0</t>
   </si>
   <si>
-    <t>0.35</t>
-  </si>
-  <si>
-    <t>760.0</t>
-  </si>
-  <si>
     <t>550.0</t>
   </si>
   <si>
-    <t>207.0</t>
-  </si>
-  <si>
     <t>190.0</t>
   </si>
   <si>
-    <t>697.0</t>
-  </si>
-  <si>
-    <t>270.0</t>
-  </si>
-  <si>
     <t>19.3</t>
   </si>
   <si>
-    <t>4.74</t>
-  </si>
-  <si>
-    <t>2.47</t>
-  </si>
-  <si>
     <t>18.0</t>
   </si>
   <si>
-    <t>4.53</t>
-  </si>
-  <si>
-    <t>2.82</t>
-  </si>
-  <si>
     <t>64775.0</t>
   </si>
   <si>
-    <t>77.7</t>
-  </si>
-  <si>
-    <t>30.7</t>
-  </si>
-  <si>
     <t>1766.0</t>
   </si>
   <si>
-    <t>140.6</t>
-  </si>
-  <si>
     <t>22.2</t>
   </si>
   <si>
-    <t>56.7</t>
-  </si>
-  <si>
     <t>3.7</t>
   </si>
   <si>
@@ -882,18 +647,6 @@
     <t>334.4</t>
   </si>
   <si>
-    <t>80 80 x 6</t>
-  </si>
-  <si>
-    <t>7.3</t>
-  </si>
-  <si>
-    <t>9.29</t>
-  </si>
-  <si>
-    <t>80x80</t>
-  </si>
-  <si>
     <t>MB 600</t>
   </si>
   <si>
@@ -909,46 +662,19 @@
     <t>210.0</t>
   </si>
   <si>
-    <t>56.2</t>
-  </si>
-  <si>
-    <t>56.0</t>
-  </si>
-  <si>
     <t>20.3</t>
   </si>
   <si>
-    <t>89.1</t>
-  </si>
-  <si>
-    <t>23.1</t>
-  </si>
-  <si>
-    <t>2.46</t>
-  </si>
-  <si>
     <t>90248.0</t>
   </si>
   <si>
-    <t>1.58</t>
-  </si>
-  <si>
     <t>2479.0</t>
   </si>
   <si>
-    <t>9.7</t>
-  </si>
-  <si>
     <t>24.2</t>
   </si>
   <si>
-    <t>9.6</t>
-  </si>
-  <si>
     <t>4.01</t>
-  </si>
-  <si>
-    <t>17.57</t>
   </si>
   <si>
     <t>3008.3</t>
@@ -1491,61 +1217,61 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" t="s">
         <v>29</v>
       </c>
-      <c r="C2" t="s">
+      <c r="K2" t="s">
         <v>30</v>
       </c>
-      <c r="D2" t="s">
+      <c r="L2" t="s">
         <v>31</v>
       </c>
-      <c r="E2" t="s">
+      <c r="M2" t="s">
         <v>32</v>
       </c>
-      <c r="F2" t="s">
+      <c r="N2" t="s">
         <v>33</v>
       </c>
-      <c r="G2" t="s">
+      <c r="O2" t="s">
         <v>34</v>
       </c>
-      <c r="H2" t="s">
+      <c r="P2" t="s">
         <v>35</v>
       </c>
-      <c r="I2" t="s">
+      <c r="Q2" t="s">
         <v>36</v>
       </c>
-      <c r="J2" t="s">
+      <c r="R2" t="s">
         <v>37</v>
       </c>
-      <c r="K2" t="s">
+      <c r="S2" t="s">
         <v>38</v>
       </c>
-      <c r="L2" t="s">
+      <c r="T2" t="s">
         <v>39</v>
-      </c>
-      <c r="M2" t="s">
-        <v>40</v>
-      </c>
-      <c r="N2" t="s">
-        <v>41</v>
-      </c>
-      <c r="O2" t="s">
-        <v>42</v>
-      </c>
-      <c r="P2" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>44</v>
-      </c>
-      <c r="R2" t="s">
-        <v>45</v>
-      </c>
-      <c r="S2" t="s">
-        <v>46</v>
-      </c>
-      <c r="T2" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="15.75" customHeight="1">
@@ -1553,61 +1279,61 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" t="s">
         <v>49</v>
       </c>
-      <c r="C3" t="s">
+      <c r="M3" t="s">
         <v>51</v>
       </c>
-      <c r="D3" t="s">
+      <c r="N3" t="s">
         <v>53</v>
       </c>
-      <c r="E3" t="s">
+      <c r="O3" t="s">
         <v>55</v>
       </c>
-      <c r="F3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G3" t="s">
-        <v>57</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="P3" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>58</v>
+      </c>
+      <c r="R3" t="s">
         <v>59</v>
       </c>
-      <c r="I3" t="s">
-        <v>36</v>
-      </c>
-      <c r="J3" t="s">
-        <v>62</v>
-      </c>
-      <c r="K3" t="s">
-        <v>38</v>
-      </c>
-      <c r="L3" t="s">
-        <v>65</v>
-      </c>
-      <c r="M3" t="s">
-        <v>67</v>
-      </c>
-      <c r="N3" t="s">
-        <v>70</v>
-      </c>
-      <c r="O3" t="s">
-        <v>72</v>
-      </c>
-      <c r="P3" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>76</v>
-      </c>
-      <c r="R3" t="s">
-        <v>77</v>
-      </c>
       <c r="S3" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="T3" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="15.75" customHeight="1">
@@ -1615,61 +1341,61 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H4" t="s">
+        <v>76</v>
+      </c>
+      <c r="I4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" t="s">
+        <v>79</v>
+      </c>
+      <c r="M4" t="s">
+        <v>81</v>
+      </c>
+      <c r="N4" t="s">
+        <v>82</v>
+      </c>
+      <c r="O4" t="s">
+        <v>83</v>
+      </c>
+      <c r="P4" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q4" t="s">
         <v>85</v>
       </c>
-      <c r="C4" t="s">
+      <c r="R4" t="s">
+        <v>86</v>
+      </c>
+      <c r="S4" t="s">
         <v>87</v>
       </c>
-      <c r="D4" t="s">
-        <v>89</v>
-      </c>
-      <c r="E4" t="s">
-        <v>91</v>
-      </c>
-      <c r="F4" t="s">
-        <v>93</v>
-      </c>
-      <c r="G4" t="s">
-        <v>95</v>
-      </c>
-      <c r="H4" t="s">
-        <v>97</v>
-      </c>
-      <c r="I4" t="s">
-        <v>36</v>
-      </c>
-      <c r="J4" t="s">
-        <v>62</v>
-      </c>
-      <c r="K4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L4" t="s">
-        <v>100</v>
-      </c>
-      <c r="M4" t="s">
-        <v>102</v>
-      </c>
-      <c r="N4" t="s">
-        <v>103</v>
-      </c>
-      <c r="O4" t="s">
-        <v>104</v>
-      </c>
-      <c r="P4" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>106</v>
-      </c>
-      <c r="R4" t="s">
-        <v>107</v>
-      </c>
-      <c r="S4" t="s">
-        <v>108</v>
-      </c>
       <c r="T4" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="15.75" customHeight="1">
@@ -1677,61 +1403,61 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F5" t="s">
+        <v>93</v>
+      </c>
+      <c r="G5" t="s">
+        <v>94</v>
+      </c>
+      <c r="H5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" t="s">
+        <v>97</v>
+      </c>
+      <c r="K5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" t="s">
+        <v>102</v>
+      </c>
+      <c r="M5" t="s">
+        <v>103</v>
+      </c>
+      <c r="N5" t="s">
+        <v>105</v>
+      </c>
+      <c r="O5" t="s">
+        <v>107</v>
+      </c>
+      <c r="P5" t="s">
         <v>109</v>
       </c>
-      <c r="C5" t="s">
-        <v>110</v>
-      </c>
-      <c r="D5" t="s">
-        <v>112</v>
-      </c>
-      <c r="E5" t="s">
-        <v>116</v>
-      </c>
-      <c r="F5" t="s">
-        <v>118</v>
-      </c>
-      <c r="G5" t="s">
-        <v>119</v>
-      </c>
-      <c r="H5" t="s">
-        <v>53</v>
-      </c>
-      <c r="I5" t="s">
-        <v>36</v>
-      </c>
-      <c r="J5" t="s">
-        <v>122</v>
-      </c>
-      <c r="K5" t="s">
-        <v>38</v>
-      </c>
-      <c r="L5" t="s">
-        <v>130</v>
-      </c>
-      <c r="M5" t="s">
-        <v>132</v>
-      </c>
-      <c r="N5" t="s">
-        <v>135</v>
-      </c>
-      <c r="O5" t="s">
-        <v>139</v>
-      </c>
-      <c r="P5" t="s">
-        <v>141</v>
-      </c>
       <c r="Q5" t="s">
-        <v>143</v>
+        <v>111</v>
       </c>
       <c r="R5" t="s">
-        <v>146</v>
+        <v>113</v>
       </c>
       <c r="S5" t="s">
-        <v>149</v>
+        <v>115</v>
       </c>
       <c r="T5" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="15.75" customHeight="1">
@@ -1739,61 +1465,61 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>151</v>
+        <v>117</v>
       </c>
       <c r="C6" t="s">
-        <v>152</v>
+        <v>118</v>
       </c>
       <c r="D6" t="s">
-        <v>154</v>
+        <v>119</v>
       </c>
       <c r="E6" t="s">
-        <v>155</v>
+        <v>120</v>
       </c>
       <c r="F6" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="G6" t="s">
-        <v>159</v>
+        <v>122</v>
       </c>
       <c r="H6" t="s">
-        <v>160</v>
+        <v>123</v>
       </c>
       <c r="I6" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="J6" t="s">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="K6" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="L6" t="s">
-        <v>165</v>
+        <v>127</v>
       </c>
       <c r="M6" t="s">
-        <v>168</v>
+        <v>129</v>
       </c>
       <c r="N6" t="s">
-        <v>171</v>
+        <v>131</v>
       </c>
       <c r="O6" t="s">
-        <v>174</v>
+        <v>134</v>
       </c>
       <c r="P6" t="s">
-        <v>176</v>
+        <v>135</v>
       </c>
       <c r="Q6" t="s">
-        <v>178</v>
+        <v>137</v>
       </c>
       <c r="R6" t="s">
-        <v>181</v>
+        <v>140</v>
       </c>
       <c r="S6" t="s">
-        <v>184</v>
+        <v>142</v>
       </c>
       <c r="T6" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="15.75" customHeight="1">
@@ -1801,61 +1527,61 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>191</v>
+        <v>148</v>
       </c>
       <c r="C7" t="s">
-        <v>193</v>
+        <v>149</v>
       </c>
       <c r="D7" t="s">
-        <v>173</v>
+        <v>133</v>
       </c>
       <c r="E7" t="s">
-        <v>196</v>
+        <v>152</v>
       </c>
       <c r="F7" t="s">
-        <v>198</v>
+        <v>154</v>
       </c>
       <c r="G7" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="H7" t="s">
-        <v>180</v>
+        <v>139</v>
       </c>
       <c r="I7" t="s">
-        <v>200</v>
+        <v>155</v>
       </c>
       <c r="J7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="K7" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="L7" t="s">
-        <v>202</v>
+        <v>156</v>
       </c>
       <c r="M7" t="s">
-        <v>204</v>
+        <v>157</v>
       </c>
       <c r="N7" t="s">
-        <v>205</v>
+        <v>158</v>
       </c>
       <c r="O7" t="s">
-        <v>208</v>
+        <v>160</v>
       </c>
       <c r="P7" t="s">
-        <v>210</v>
+        <v>162</v>
       </c>
       <c r="Q7" t="s">
-        <v>160</v>
+        <v>123</v>
       </c>
       <c r="R7" t="s">
-        <v>217</v>
+        <v>166</v>
       </c>
       <c r="S7" t="s">
-        <v>220</v>
+        <v>168</v>
       </c>
       <c r="T7" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="15.75" customHeight="1">
@@ -1863,61 +1589,61 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>229</v>
+        <v>173</v>
       </c>
       <c r="C8" t="s">
-        <v>230</v>
+        <v>174</v>
       </c>
       <c r="D8" t="s">
-        <v>232</v>
+        <v>175</v>
       </c>
       <c r="E8" t="s">
-        <v>234</v>
+        <v>177</v>
       </c>
       <c r="F8" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="G8" t="s">
-        <v>237</v>
+        <v>180</v>
       </c>
       <c r="H8" t="s">
-        <v>240</v>
+        <v>182</v>
       </c>
       <c r="I8" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="J8" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="K8" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="L8" t="s">
-        <v>243</v>
+        <v>185</v>
       </c>
       <c r="M8" t="s">
-        <v>244</v>
+        <v>186</v>
       </c>
       <c r="N8" t="s">
-        <v>245</v>
+        <v>187</v>
       </c>
       <c r="O8" t="s">
-        <v>246</v>
+        <v>188</v>
       </c>
       <c r="P8" t="s">
-        <v>248</v>
+        <v>189</v>
       </c>
       <c r="Q8" t="s">
-        <v>249</v>
+        <v>190</v>
       </c>
       <c r="R8" t="s">
-        <v>251</v>
+        <v>191</v>
       </c>
       <c r="S8" t="s">
-        <v>253</v>
+        <v>192</v>
       </c>
       <c r="T8" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="15.75" customHeight="1">
@@ -1925,61 +1651,61 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>256</v>
+        <v>193</v>
       </c>
       <c r="C9" t="s">
-        <v>258</v>
+        <v>194</v>
       </c>
       <c r="D9" t="s">
-        <v>260</v>
+        <v>195</v>
       </c>
       <c r="E9" t="s">
-        <v>263</v>
+        <v>196</v>
       </c>
       <c r="F9" t="s">
-        <v>265</v>
+        <v>197</v>
       </c>
       <c r="G9" t="s">
-        <v>241</v>
+        <v>183</v>
       </c>
       <c r="H9" t="s">
-        <v>268</v>
+        <v>198</v>
       </c>
       <c r="I9" t="s">
+        <v>155</v>
+      </c>
+      <c r="J9" t="s">
+        <v>199</v>
+      </c>
+      <c r="K9" t="s">
+        <v>139</v>
+      </c>
+      <c r="L9" t="s">
         <v>200</v>
       </c>
-      <c r="J9" t="s">
-        <v>271</v>
-      </c>
-      <c r="K9" t="s">
-        <v>180</v>
-      </c>
-      <c r="L9" t="s">
-        <v>274</v>
-      </c>
       <c r="M9" t="s">
-        <v>277</v>
+        <v>201</v>
       </c>
       <c r="N9" t="s">
-        <v>279</v>
+        <v>202</v>
       </c>
       <c r="O9" t="s">
-        <v>281</v>
+        <v>203</v>
       </c>
       <c r="P9" t="s">
-        <v>282</v>
+        <v>204</v>
       </c>
       <c r="Q9" t="s">
-        <v>283</v>
+        <v>205</v>
       </c>
       <c r="R9" t="s">
-        <v>284</v>
+        <v>206</v>
       </c>
       <c r="S9" t="s">
-        <v>285</v>
+        <v>207</v>
       </c>
       <c r="T9" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="15.75" customHeight="1">
@@ -1987,61 +1713,61 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>290</v>
+        <v>208</v>
       </c>
       <c r="C10" t="s">
-        <v>291</v>
+        <v>209</v>
       </c>
       <c r="D10" t="s">
-        <v>292</v>
+        <v>210</v>
       </c>
       <c r="E10" t="s">
-        <v>293</v>
+        <v>211</v>
       </c>
       <c r="F10" t="s">
-        <v>294</v>
+        <v>212</v>
       </c>
       <c r="G10" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="H10" t="s">
-        <v>297</v>
+        <v>213</v>
       </c>
       <c r="I10" t="s">
-        <v>200</v>
+        <v>155</v>
       </c>
       <c r="J10" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="K10" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="L10" t="s">
-        <v>301</v>
+        <v>214</v>
       </c>
       <c r="M10" t="s">
-        <v>303</v>
+        <v>215</v>
       </c>
       <c r="N10" t="s">
-        <v>305</v>
+        <v>216</v>
       </c>
       <c r="O10" t="s">
-        <v>307</v>
+        <v>217</v>
       </c>
       <c r="P10" t="s">
-        <v>309</v>
+        <v>218</v>
       </c>
       <c r="Q10" t="s">
-        <v>310</v>
+        <v>219</v>
       </c>
       <c r="R10" t="s">
-        <v>311</v>
+        <v>220</v>
       </c>
       <c r="S10" t="s">
-        <v>312</v>
+        <v>221</v>
       </c>
       <c r="T10" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="15.75" customHeight="1">
@@ -2049,61 +1775,61 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>313</v>
+        <v>222</v>
       </c>
       <c r="C11" t="s">
-        <v>314</v>
+        <v>223</v>
       </c>
       <c r="D11" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="E11" t="s">
-        <v>315</v>
+        <v>224</v>
       </c>
       <c r="F11" t="s">
-        <v>316</v>
+        <v>225</v>
       </c>
       <c r="G11" t="s">
-        <v>317</v>
+        <v>226</v>
       </c>
       <c r="H11" t="s">
-        <v>318</v>
+        <v>227</v>
       </c>
       <c r="I11" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="J11" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="K11" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="L11" t="s">
-        <v>319</v>
+        <v>228</v>
       </c>
       <c r="M11" t="s">
-        <v>320</v>
+        <v>229</v>
       </c>
       <c r="N11" t="s">
-        <v>321</v>
+        <v>230</v>
       </c>
       <c r="O11" t="s">
-        <v>322</v>
+        <v>231</v>
       </c>
       <c r="P11" t="s">
-        <v>323</v>
+        <v>232</v>
       </c>
       <c r="Q11" t="s">
-        <v>324</v>
+        <v>233</v>
       </c>
       <c r="R11" t="s">
-        <v>325</v>
+        <v>234</v>
       </c>
       <c r="S11" t="s">
-        <v>326</v>
+        <v>235</v>
       </c>
       <c r="T11" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="15.75" customHeight="1">
@@ -2111,61 +1837,61 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>327</v>
+        <v>236</v>
       </c>
       <c r="C12" t="s">
-        <v>328</v>
+        <v>237</v>
       </c>
       <c r="D12" t="s">
-        <v>329</v>
+        <v>238</v>
       </c>
       <c r="E12" t="s">
-        <v>330</v>
+        <v>239</v>
       </c>
       <c r="F12" t="s">
-        <v>331</v>
+        <v>240</v>
       </c>
       <c r="G12" t="s">
-        <v>332</v>
+        <v>241</v>
       </c>
       <c r="H12" t="s">
-        <v>333</v>
+        <v>242</v>
       </c>
       <c r="I12" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="J12" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="K12" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="L12" t="s">
-        <v>334</v>
+        <v>243</v>
       </c>
       <c r="M12" t="s">
-        <v>335</v>
+        <v>244</v>
       </c>
       <c r="N12" t="s">
-        <v>336</v>
+        <v>245</v>
       </c>
       <c r="O12" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="P12" t="s">
-        <v>337</v>
+        <v>246</v>
       </c>
       <c r="Q12" t="s">
-        <v>338</v>
+        <v>247</v>
       </c>
       <c r="R12" t="s">
-        <v>339</v>
+        <v>248</v>
       </c>
       <c r="S12" t="s">
-        <v>340</v>
+        <v>249</v>
       </c>
       <c r="T12" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="15.75" customHeight="1"/>
@@ -2869,15 +2595,13 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z7"/>
+  <dimension ref="A1:Z5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="Y1" sqref="Y1:AA8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <sheetData>
@@ -2895,552 +2619,6 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
-    </row>
-    <row r="2" spans="1:26">
-      <c r="A2" s="3">
-        <v>7</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="X2" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
-    </row>
-    <row r="3" spans="1:26">
-      <c r="A3" s="3">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="X3" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y3" s="1"/>
-      <c r="Z3" s="1"/>
-    </row>
-    <row r="4" spans="1:26">
-      <c r="A4" s="3">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="X4" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y4" s="1"/>
-      <c r="Z4" s="1"/>
-    </row>
-    <row r="5" spans="1:26">
-      <c r="A5" s="3">
-        <v>10</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="U5" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="V5" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="W5" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="X5" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y5" s="1"/>
-      <c r="Z5" s="1"/>
-    </row>
-    <row r="6" spans="1:26">
-      <c r="A6" s="3">
-        <v>11</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="U6" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="V6" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="W6" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="X6" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y6" s="1"/>
-      <c r="Z6" s="1"/>
-    </row>
-    <row r="7" spans="1:26">
-      <c r="A7" s="3">
-        <v>12</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="R7" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="S7" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="T7" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="U7" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="V7" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="W7" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="X7" s="1"/>
-      <c r="Y7" s="1"/>
-      <c r="Z7" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:Z5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
-  <sheetData>
-    <row r="1" spans="1:26">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -3462,7 +2640,7 @@
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>11</v>
@@ -3502,64 +2680,64 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="O2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="R2" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="S2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="U2" s="4" t="s">
         <v>80</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="U2" s="4" t="s">
-        <v>101</v>
       </c>
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
@@ -3572,64 +2750,64 @@
         <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q3" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>148</v>
-      </c>
       <c r="R3" s="1" t="s">
-        <v>150</v>
+        <v>116</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="U3" s="4" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
@@ -3642,64 +2820,64 @@
         <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>157</v>
+        <v>121</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>161</v>
+        <v>124</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>162</v>
+        <v>125</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>163</v>
+        <v>126</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>167</v>
+        <v>128</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>170</v>
+        <v>130</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>172</v>
+        <v>132</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>177</v>
+        <v>136</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>179</v>
+        <v>138</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>182</v>
+        <v>141</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>185</v>
+        <v>143</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>186</v>
+        <v>144</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>187</v>
+        <v>145</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>189</v>
+        <v>146</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>190</v>
+        <v>147</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>194</v>
+        <v>150</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>195</v>
+        <v>151</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>197</v>
+        <v>153</v>
       </c>
       <c r="U4" s="4" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
@@ -3712,64 +2890,64 @@
         <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>206</v>
+        <v>159</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>209</v>
+        <v>161</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>211</v>
+        <v>163</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>212</v>
+        <v>164</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>214</v>
+        <v>165</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>159</v>
+        <v>122</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>219</v>
+        <v>167</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>221</v>
+        <v>169</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>224</v>
+        <v>170</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>226</v>
+        <v>171</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>227</v>
+        <v>172</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>233</v>
+        <v>176</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>235</v>
+        <v>178</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>236</v>
+        <v>179</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>239</v>
+        <v>181</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>242</v>
+        <v>184</v>
       </c>
       <c r="U5" s="4" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>

--- a/new_sections.xlsx
+++ b/new_sections.xlsx
@@ -1,27 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\Osdag\dev\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6FF1D2E-EC3A-4CFE-B979-610418DBE712}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="2376" yWindow="504" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <workbookPr/>
   <sheets>
-    <sheet name="I_Sections" sheetId="1" r:id="rId1"/>
-    <sheet name="Channel" sheetId="3" r:id="rId2"/>
+    <sheet state="visible" name="I_Sections" sheetId="1" r:id="rId3"/>
+    <sheet state="visible" name="Angle" sheetId="2" r:id="rId4"/>
+    <sheet state="visible" name="Channel" sheetId="3" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="341">
   <si>
     <t>Id</t>
   </si>
@@ -83,9 +75,33 @@
     <t>Source</t>
   </si>
   <si>
+    <t>AXB</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>Cz</t>
+  </si>
+  <si>
     <t>Cy</t>
   </si>
   <si>
+    <t>Tan?</t>
+  </si>
+  <si>
+    <t>Iu(max)</t>
+  </si>
+  <si>
+    <t>Iv(min)</t>
+  </si>
+  <si>
+    <t>ru(max)</t>
+  </si>
+  <si>
+    <t>rv(min)</t>
+  </si>
+  <si>
     <t>UB 203 x 133 x 25</t>
   </si>
   <si>
@@ -143,15 +159,27 @@
     <t>IS808_Rev</t>
   </si>
   <si>
+    <t>30 20 X 3</t>
+  </si>
+  <si>
     <t>WPB 100x100x20.4</t>
   </si>
   <si>
+    <t>1.1</t>
+  </si>
+  <si>
     <t>20.44</t>
   </si>
   <si>
+    <t>1.41</t>
+  </si>
+  <si>
     <t>26.0</t>
   </si>
   <si>
+    <t>30x20</t>
+  </si>
+  <si>
     <t>100.0</t>
   </si>
   <si>
@@ -161,15 +189,27 @@
     <t>6.0</t>
   </si>
   <si>
+    <t>4.5</t>
+  </si>
+  <si>
     <t>10.0</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
+    <t>0.98</t>
+  </si>
+  <si>
     <t>1.2</t>
   </si>
   <si>
+    <t>0.54</t>
+  </si>
+  <si>
+    <t>0.43</t>
+  </si>
+  <si>
     <t>449.5</t>
   </si>
   <si>
@@ -182,6 +222,9 @@
     <t>5.8</t>
   </si>
   <si>
+    <t>0.4</t>
+  </si>
+  <si>
     <t>4.16</t>
   </si>
   <si>
@@ -197,6 +240,9 @@
     <t>100</t>
   </si>
   <si>
+    <t>0.93</t>
+  </si>
+  <si>
     <t>33.4</t>
   </si>
   <si>
@@ -212,9 +258,18 @@
     <t>5.1</t>
   </si>
   <si>
+    <t>0.6</t>
+  </si>
+  <si>
+    <t>0.3</t>
+  </si>
+  <si>
     <t>91.5</t>
   </si>
   <si>
+    <t>0.5</t>
+  </si>
+  <si>
     <t>WPB 100x100x41.8</t>
   </si>
   <si>
@@ -293,15 +348,27 @@
     <t>171.11</t>
   </si>
   <si>
+    <t>45 30 X 3</t>
+  </si>
+  <si>
     <t>218.0</t>
   </si>
   <si>
+    <t>1.7</t>
+  </si>
+  <si>
     <t>LC 400</t>
   </si>
   <si>
+    <t>2.18</t>
+  </si>
+  <si>
     <t>450.0</t>
   </si>
   <si>
+    <t>45x30</t>
+  </si>
+  <si>
     <t>300.0</t>
   </si>
   <si>
@@ -320,30 +387,51 @@
     <t>58.3</t>
   </si>
   <si>
+    <t>0.74</t>
+  </si>
+  <si>
     <t>400</t>
   </si>
   <si>
+    <t>0.44</t>
+  </si>
+  <si>
     <t>8.0</t>
   </si>
   <si>
+    <t>1.5</t>
+  </si>
+  <si>
     <t>96</t>
   </si>
   <si>
     <t>79887.5</t>
   </si>
   <si>
+    <t>1.43</t>
+  </si>
+  <si>
     <t>11713.96</t>
   </si>
   <si>
+    <t>0.84</t>
+  </si>
+  <si>
     <t>2.37</t>
   </si>
   <si>
     <t>19.14</t>
   </si>
   <si>
+    <t>1.44</t>
+  </si>
+  <si>
     <t>14000.0</t>
   </si>
   <si>
+    <t>0.83</t>
+  </si>
+  <si>
     <t>7.33</t>
   </si>
   <si>
@@ -359,12 +447,18 @@
     <t>780.93</t>
   </si>
   <si>
+    <t>0.7</t>
+  </si>
+  <si>
     <t>2.81</t>
   </si>
   <si>
     <t>3982.37</t>
   </si>
   <si>
+    <t>2.6</t>
+  </si>
+  <si>
     <t>701.0</t>
   </si>
   <si>
@@ -380,15 +474,24 @@
     <t>149.89</t>
   </si>
   <si>
+    <t>60 40 X 8</t>
+  </si>
+  <si>
     <t>190.9</t>
   </si>
   <si>
     <t>670.0</t>
   </si>
   <si>
+    <t>7.37</t>
+  </si>
+  <si>
     <t>MC 200</t>
   </si>
   <si>
+    <t>60x40</t>
+  </si>
+  <si>
     <t>13.0</t>
   </si>
   <si>
@@ -404,15 +507,24 @@
     <t>200</t>
   </si>
   <si>
+    <t>2.07</t>
+  </si>
+  <si>
     <t>142720.5</t>
   </si>
   <si>
+    <t>1.12</t>
+  </si>
+  <si>
     <t>75</t>
   </si>
   <si>
     <t>7666.07</t>
   </si>
   <si>
+    <t>0.42</t>
+  </si>
+  <si>
     <t>6.2</t>
   </si>
   <si>
@@ -428,6 +540,9 @@
     <t>6.34</t>
   </si>
   <si>
+    <t>8.8</t>
+  </si>
+  <si>
     <t>4260.31</t>
   </si>
   <si>
@@ -449,6 +564,9 @@
     <t>2.2</t>
   </si>
   <si>
+    <t>1.84</t>
+  </si>
+  <si>
     <t>799.71</t>
   </si>
   <si>
@@ -461,6 +579,9 @@
     <t>8.02</t>
   </si>
   <si>
+    <t>6.4</t>
+  </si>
+  <si>
     <t>2.22</t>
   </si>
   <si>
@@ -470,6 +591,9 @@
     <t>MB 175</t>
   </si>
   <si>
+    <t>11.7</t>
+  </si>
+  <si>
     <t>19.5</t>
   </si>
   <si>
@@ -488,12 +612,21 @@
     <t>85.0</t>
   </si>
   <si>
+    <t>75 50X 10</t>
+  </si>
+  <si>
     <t>98</t>
   </si>
   <si>
+    <t>11.52</t>
+  </si>
+  <si>
     <t>1264.0</t>
   </si>
   <si>
+    <t>75x50</t>
+  </si>
+  <si>
     <t>74.2</t>
   </si>
   <si>
@@ -503,6 +636,9 @@
     <t>MCP 300</t>
   </si>
   <si>
+    <t>6.5</t>
+  </si>
+  <si>
     <t>1.73</t>
   </si>
   <si>
@@ -518,12 +654,24 @@
     <t>300</t>
   </si>
   <si>
+    <t>1.39</t>
+  </si>
+  <si>
     <t>13.6</t>
   </si>
   <si>
+    <t>61.5</t>
+  </si>
+  <si>
+    <t>21.8</t>
+  </si>
+  <si>
     <t>166.0</t>
   </si>
   <si>
+    <t>61.2</t>
+  </si>
+  <si>
     <t>7.0</t>
   </si>
   <si>
@@ -533,21 +681,36 @@
     <t>2.58</t>
   </si>
   <si>
+    <t>22.1</t>
+  </si>
+  <si>
+    <t>2.31</t>
+  </si>
+  <si>
     <t>6420.0</t>
   </si>
   <si>
+    <t>1.38</t>
+  </si>
+  <si>
     <t>352.0</t>
   </si>
   <si>
     <t>11.78</t>
   </si>
   <si>
+    <t>2.3</t>
+  </si>
+  <si>
     <t>WPB 900x300x291.5</t>
   </si>
   <si>
     <t>291.45</t>
   </si>
   <si>
+    <t>12.5</t>
+  </si>
+  <si>
     <t>371.3</t>
   </si>
   <si>
@@ -566,6 +729,9 @@
     <t>18.5</t>
   </si>
   <si>
+    <t>22.9</t>
+  </si>
+  <si>
     <t>502.5</t>
   </si>
   <si>
@@ -590,48 +756,108 @@
     <t>6.52</t>
   </si>
   <si>
+    <t>150 90 X X 15</t>
+  </si>
+  <si>
     <t>10979.21</t>
   </si>
   <si>
     <t>1053.54</t>
   </si>
   <si>
+    <t>26.6</t>
+  </si>
+  <si>
     <t>12584.1</t>
   </si>
   <si>
+    <t>33.9</t>
+  </si>
+  <si>
     <t>1658.34</t>
   </si>
   <si>
+    <t>150x90</t>
+  </si>
+  <si>
+    <t>15.0</t>
+  </si>
+  <si>
     <t>MB 550</t>
   </si>
   <si>
+    <t>5.21</t>
+  </si>
+  <si>
     <t>104.0</t>
   </si>
   <si>
+    <t>2.27</t>
+  </si>
+  <si>
     <t>132.0</t>
   </si>
   <si>
+    <t>0.35</t>
+  </si>
+  <si>
+    <t>760.0</t>
+  </si>
+  <si>
     <t>550.0</t>
   </si>
   <si>
+    <t>207.0</t>
+  </si>
+  <si>
     <t>190.0</t>
   </si>
   <si>
+    <t>697.0</t>
+  </si>
+  <si>
+    <t>270.0</t>
+  </si>
+  <si>
     <t>19.3</t>
   </si>
   <si>
+    <t>4.74</t>
+  </si>
+  <si>
+    <t>2.47</t>
+  </si>
+  <si>
     <t>18.0</t>
   </si>
   <si>
+    <t>4.53</t>
+  </si>
+  <si>
+    <t>2.82</t>
+  </si>
+  <si>
     <t>64775.0</t>
   </si>
   <si>
+    <t>77.7</t>
+  </si>
+  <si>
+    <t>30.7</t>
+  </si>
+  <si>
     <t>1766.0</t>
   </si>
   <si>
+    <t>140.6</t>
+  </si>
+  <si>
     <t>22.2</t>
   </si>
   <si>
+    <t>56.7</t>
+  </si>
+  <si>
     <t>3.7</t>
   </si>
   <si>
@@ -647,6 +873,18 @@
     <t>334.4</t>
   </si>
   <si>
+    <t>80 80 x 6</t>
+  </si>
+  <si>
+    <t>7.3</t>
+  </si>
+  <si>
+    <t>9.29</t>
+  </si>
+  <si>
+    <t>80x80</t>
+  </si>
+  <si>
     <t>MB 600</t>
   </si>
   <si>
@@ -662,19 +900,46 @@
     <t>210.0</t>
   </si>
   <si>
+    <t>56.2</t>
+  </si>
+  <si>
+    <t>56.0</t>
+  </si>
+  <si>
     <t>20.3</t>
   </si>
   <si>
+    <t>89.1</t>
+  </si>
+  <si>
+    <t>23.1</t>
+  </si>
+  <si>
+    <t>2.46</t>
+  </si>
+  <si>
     <t>90248.0</t>
   </si>
   <si>
+    <t>1.58</t>
+  </si>
+  <si>
     <t>2479.0</t>
   </si>
   <si>
+    <t>9.7</t>
+  </si>
+  <si>
     <t>24.2</t>
   </si>
   <si>
+    <t>9.6</t>
+  </si>
+  <si>
     <t>4.01</t>
+  </si>
+  <si>
+    <t>17.57</t>
   </si>
   <si>
     <t>3008.3</t>
@@ -776,381 +1041,88 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <fonts count="3">
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <name val="Calibri"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
+    <font/>
   </fonts>
   <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
   </fills>
   <borders count="2">
+    <border/>
     <border>
-      <left/>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4472C4"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T706"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" customWidth="1"/>
-    <col min="3" max="26" width="8.6640625" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="8.71"/>
+    <col customWidth="1" min="2" max="2" width="18.71"/>
+    <col customWidth="1" min="3" max="26" width="8.71"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="14.4">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1212,692 +1184,692 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="15.75" customHeight="1">
+    <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="2">
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
+        <v>44</v>
+      </c>
+      <c r="R2" t="s">
+        <v>45</v>
+      </c>
+      <c r="S2" t="s">
+        <v>46</v>
+      </c>
+      <c r="T2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" ht="15.75" customHeight="1">
+      <c r="A3" s="2">
+        <v>11.0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I3" t="s">
         <v>36</v>
       </c>
-      <c r="R2" t="s">
-        <v>37</v>
-      </c>
-      <c r="S2" t="s">
+      <c r="J3" t="s">
+        <v>62</v>
+      </c>
+      <c r="K3" t="s">
         <v>38</v>
       </c>
-      <c r="T2" t="s">
-        <v>39</v>
+      <c r="L3" t="s">
+        <v>65</v>
+      </c>
+      <c r="M3" t="s">
+        <v>67</v>
+      </c>
+      <c r="N3" t="s">
+        <v>70</v>
+      </c>
+      <c r="O3" t="s">
+        <v>72</v>
+      </c>
+      <c r="P3" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>76</v>
+      </c>
+      <c r="R3" t="s">
+        <v>77</v>
+      </c>
+      <c r="S3" t="s">
+        <v>79</v>
+      </c>
+      <c r="T3" t="s">
+        <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A3" s="2">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H3" t="s">
-        <v>46</v>
-      </c>
-      <c r="I3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" t="s">
-        <v>48</v>
-      </c>
-      <c r="K3" t="s">
-        <v>30</v>
-      </c>
-      <c r="L3" t="s">
-        <v>49</v>
-      </c>
-      <c r="M3" t="s">
-        <v>51</v>
-      </c>
-      <c r="N3" t="s">
+    <row r="4" ht="15.75" customHeight="1">
+      <c r="A4" s="2">
+        <v>12.0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F4" t="s">
+        <v>93</v>
+      </c>
+      <c r="G4" t="s">
+        <v>95</v>
+      </c>
+      <c r="H4" t="s">
+        <v>97</v>
+      </c>
+      <c r="I4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s">
+        <v>38</v>
+      </c>
+      <c r="L4" t="s">
+        <v>100</v>
+      </c>
+      <c r="M4" t="s">
+        <v>102</v>
+      </c>
+      <c r="N4" t="s">
+        <v>103</v>
+      </c>
+      <c r="O4" t="s">
+        <v>104</v>
+      </c>
+      <c r="P4" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>106</v>
+      </c>
+      <c r="R4" t="s">
+        <v>107</v>
+      </c>
+      <c r="S4" t="s">
+        <v>108</v>
+      </c>
+      <c r="T4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" ht="15.75" customHeight="1">
+      <c r="A5" s="2">
+        <v>13.0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E5" t="s">
+        <v>116</v>
+      </c>
+      <c r="F5" t="s">
+        <v>118</v>
+      </c>
+      <c r="G5" t="s">
+        <v>119</v>
+      </c>
+      <c r="H5" t="s">
         <v>53</v>
       </c>
-      <c r="O3" t="s">
-        <v>55</v>
-      </c>
-      <c r="P3" t="s">
+      <c r="I5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5" t="s">
+        <v>122</v>
+      </c>
+      <c r="K5" t="s">
+        <v>38</v>
+      </c>
+      <c r="L5" t="s">
+        <v>130</v>
+      </c>
+      <c r="M5" t="s">
+        <v>132</v>
+      </c>
+      <c r="N5" t="s">
+        <v>135</v>
+      </c>
+      <c r="O5" t="s">
+        <v>139</v>
+      </c>
+      <c r="P5" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>143</v>
+      </c>
+      <c r="R5" t="s">
+        <v>146</v>
+      </c>
+      <c r="S5" t="s">
+        <v>149</v>
+      </c>
+      <c r="T5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" ht="15.75" customHeight="1">
+      <c r="A6" s="2">
+        <v>14.0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C6" t="s">
+        <v>152</v>
+      </c>
+      <c r="D6" t="s">
+        <v>154</v>
+      </c>
+      <c r="E6" t="s">
+        <v>155</v>
+      </c>
+      <c r="F6" t="s">
+        <v>118</v>
+      </c>
+      <c r="G6" t="s">
+        <v>159</v>
+      </c>
+      <c r="H6" t="s">
+        <v>160</v>
+      </c>
+      <c r="I6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J6" t="s">
+        <v>122</v>
+      </c>
+      <c r="K6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L6" t="s">
+        <v>165</v>
+      </c>
+      <c r="M6" t="s">
+        <v>168</v>
+      </c>
+      <c r="N6" t="s">
+        <v>171</v>
+      </c>
+      <c r="O6" t="s">
+        <v>174</v>
+      </c>
+      <c r="P6" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>178</v>
+      </c>
+      <c r="R6" t="s">
+        <v>181</v>
+      </c>
+      <c r="S6" t="s">
+        <v>184</v>
+      </c>
+      <c r="T6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" ht="15.75" customHeight="1">
+      <c r="A7" s="2">
+        <v>15.0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>191</v>
+      </c>
+      <c r="C7" t="s">
+        <v>193</v>
+      </c>
+      <c r="D7" t="s">
+        <v>173</v>
+      </c>
+      <c r="E7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F7" t="s">
+        <v>198</v>
+      </c>
+      <c r="G7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H7" t="s">
+        <v>180</v>
+      </c>
+      <c r="I7" t="s">
+        <v>200</v>
+      </c>
+      <c r="J7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K7" t="s">
+        <v>120</v>
+      </c>
+      <c r="L7" t="s">
+        <v>202</v>
+      </c>
+      <c r="M7" t="s">
+        <v>204</v>
+      </c>
+      <c r="N7" t="s">
+        <v>205</v>
+      </c>
+      <c r="O7" t="s">
+        <v>208</v>
+      </c>
+      <c r="P7" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>160</v>
+      </c>
+      <c r="R7" t="s">
+        <v>217</v>
+      </c>
+      <c r="S7" t="s">
+        <v>220</v>
+      </c>
+      <c r="T7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" ht="15.75" customHeight="1">
+      <c r="A8" s="2">
+        <v>16.0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>229</v>
+      </c>
+      <c r="C8" t="s">
+        <v>230</v>
+      </c>
+      <c r="D8" t="s">
+        <v>232</v>
+      </c>
+      <c r="E8" t="s">
+        <v>234</v>
+      </c>
+      <c r="F8" t="s">
+        <v>118</v>
+      </c>
+      <c r="G8" t="s">
+        <v>237</v>
+      </c>
+      <c r="H8" t="s">
+        <v>240</v>
+      </c>
+      <c r="I8" t="s">
+        <v>36</v>
+      </c>
+      <c r="J8" t="s">
         <v>56</v>
       </c>
-      <c r="Q3" t="s">
-        <v>58</v>
-      </c>
-      <c r="R3" t="s">
+      <c r="K8" t="s">
+        <v>38</v>
+      </c>
+      <c r="L8" t="s">
+        <v>243</v>
+      </c>
+      <c r="M8" t="s">
+        <v>244</v>
+      </c>
+      <c r="N8" t="s">
+        <v>245</v>
+      </c>
+      <c r="O8" t="s">
+        <v>246</v>
+      </c>
+      <c r="P8" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>249</v>
+      </c>
+      <c r="R8" t="s">
+        <v>251</v>
+      </c>
+      <c r="S8" t="s">
+        <v>253</v>
+      </c>
+      <c r="T8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" ht="15.75" customHeight="1">
+      <c r="A9" s="2">
+        <v>17.0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>256</v>
+      </c>
+      <c r="C9" t="s">
+        <v>258</v>
+      </c>
+      <c r="D9" t="s">
+        <v>260</v>
+      </c>
+      <c r="E9" t="s">
+        <v>263</v>
+      </c>
+      <c r="F9" t="s">
+        <v>265</v>
+      </c>
+      <c r="G9" t="s">
+        <v>241</v>
+      </c>
+      <c r="H9" t="s">
+        <v>268</v>
+      </c>
+      <c r="I9" t="s">
+        <v>200</v>
+      </c>
+      <c r="J9" t="s">
+        <v>271</v>
+      </c>
+      <c r="K9" t="s">
+        <v>180</v>
+      </c>
+      <c r="L9" t="s">
+        <v>274</v>
+      </c>
+      <c r="M9" t="s">
+        <v>277</v>
+      </c>
+      <c r="N9" t="s">
+        <v>279</v>
+      </c>
+      <c r="O9" t="s">
+        <v>281</v>
+      </c>
+      <c r="P9" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>283</v>
+      </c>
+      <c r="R9" t="s">
+        <v>284</v>
+      </c>
+      <c r="S9" t="s">
+        <v>285</v>
+      </c>
+      <c r="T9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="A10" s="2">
+        <v>18.0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>290</v>
+      </c>
+      <c r="C10" t="s">
+        <v>291</v>
+      </c>
+      <c r="D10" t="s">
+        <v>292</v>
+      </c>
+      <c r="E10" t="s">
+        <v>293</v>
+      </c>
+      <c r="F10" t="s">
+        <v>294</v>
+      </c>
+      <c r="G10" t="s">
+        <v>95</v>
+      </c>
+      <c r="H10" t="s">
+        <v>297</v>
+      </c>
+      <c r="I10" t="s">
+        <v>200</v>
+      </c>
+      <c r="J10" t="s">
+        <v>97</v>
+      </c>
+      <c r="K10" t="s">
         <v>59</v>
       </c>
-      <c r="S3" t="s">
-        <v>61</v>
-      </c>
-      <c r="T3" t="s">
-        <v>39</v>
+      <c r="L10" t="s">
+        <v>301</v>
+      </c>
+      <c r="M10" t="s">
+        <v>303</v>
+      </c>
+      <c r="N10" t="s">
+        <v>305</v>
+      </c>
+      <c r="O10" t="s">
+        <v>307</v>
+      </c>
+      <c r="P10" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>310</v>
+      </c>
+      <c r="R10" t="s">
+        <v>311</v>
+      </c>
+      <c r="S10" t="s">
+        <v>312</v>
+      </c>
+      <c r="T10" t="s">
+        <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A4" s="2">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F4" t="s">
+    <row r="11" ht="15.75" customHeight="1">
+      <c r="A11" s="2">
+        <v>19.0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>313</v>
+      </c>
+      <c r="C11" t="s">
+        <v>314</v>
+      </c>
+      <c r="D11" t="s">
+        <v>76</v>
+      </c>
+      <c r="E11" t="s">
+        <v>315</v>
+      </c>
+      <c r="F11" t="s">
+        <v>316</v>
+      </c>
+      <c r="G11" t="s">
+        <v>317</v>
+      </c>
+      <c r="H11" t="s">
+        <v>318</v>
+      </c>
+      <c r="I11" t="s">
+        <v>36</v>
+      </c>
+      <c r="J11" t="s">
+        <v>62</v>
+      </c>
+      <c r="K11" t="s">
+        <v>38</v>
+      </c>
+      <c r="L11" t="s">
+        <v>319</v>
+      </c>
+      <c r="M11" t="s">
+        <v>320</v>
+      </c>
+      <c r="N11" t="s">
+        <v>321</v>
+      </c>
+      <c r="O11" t="s">
+        <v>322</v>
+      </c>
+      <c r="P11" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>324</v>
+      </c>
+      <c r="R11" t="s">
+        <v>325</v>
+      </c>
+      <c r="S11" t="s">
+        <v>326</v>
+      </c>
+      <c r="T11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="A12" s="2">
+        <v>20.0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>327</v>
+      </c>
+      <c r="C12" t="s">
+        <v>328</v>
+      </c>
+      <c r="D12" t="s">
+        <v>329</v>
+      </c>
+      <c r="E12" t="s">
+        <v>330</v>
+      </c>
+      <c r="F12" t="s">
+        <v>331</v>
+      </c>
+      <c r="G12" t="s">
+        <v>332</v>
+      </c>
+      <c r="H12" t="s">
+        <v>333</v>
+      </c>
+      <c r="I12" t="s">
+        <v>36</v>
+      </c>
+      <c r="J12" t="s">
+        <v>62</v>
+      </c>
+      <c r="K12" t="s">
+        <v>38</v>
+      </c>
+      <c r="L12" t="s">
+        <v>334</v>
+      </c>
+      <c r="M12" t="s">
+        <v>335</v>
+      </c>
+      <c r="N12" t="s">
+        <v>336</v>
+      </c>
+      <c r="O12" t="s">
         <v>72</v>
       </c>
-      <c r="G4" t="s">
-        <v>74</v>
-      </c>
-      <c r="H4" t="s">
-        <v>76</v>
-      </c>
-      <c r="I4" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4" t="s">
-        <v>48</v>
-      </c>
-      <c r="K4" t="s">
-        <v>30</v>
-      </c>
-      <c r="L4" t="s">
-        <v>79</v>
-      </c>
-      <c r="M4" t="s">
-        <v>81</v>
-      </c>
-      <c r="N4" t="s">
-        <v>82</v>
-      </c>
-      <c r="O4" t="s">
-        <v>83</v>
-      </c>
-      <c r="P4" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>85</v>
-      </c>
-      <c r="R4" t="s">
-        <v>86</v>
-      </c>
-      <c r="S4" t="s">
-        <v>87</v>
-      </c>
-      <c r="T4" t="s">
-        <v>39</v>
+      <c r="P12" t="s">
+        <v>337</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>338</v>
+      </c>
+      <c r="R12" t="s">
+        <v>339</v>
+      </c>
+      <c r="S12" t="s">
+        <v>340</v>
+      </c>
+      <c r="T12" t="s">
+        <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A5" s="2">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>88</v>
-      </c>
-      <c r="C5" t="s">
-        <v>89</v>
-      </c>
-      <c r="D5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E5" t="s">
-        <v>92</v>
-      </c>
-      <c r="F5" t="s">
-        <v>93</v>
-      </c>
-      <c r="G5" t="s">
-        <v>94</v>
-      </c>
-      <c r="H5" t="s">
-        <v>42</v>
-      </c>
-      <c r="I5" t="s">
-        <v>28</v>
-      </c>
-      <c r="J5" t="s">
-        <v>97</v>
-      </c>
-      <c r="K5" t="s">
-        <v>30</v>
-      </c>
-      <c r="L5" t="s">
-        <v>102</v>
-      </c>
-      <c r="M5" t="s">
-        <v>103</v>
-      </c>
-      <c r="N5" t="s">
-        <v>105</v>
-      </c>
-      <c r="O5" t="s">
-        <v>107</v>
-      </c>
-      <c r="P5" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>111</v>
-      </c>
-      <c r="R5" t="s">
-        <v>113</v>
-      </c>
-      <c r="S5" t="s">
-        <v>115</v>
-      </c>
-      <c r="T5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A6" s="2">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>117</v>
-      </c>
-      <c r="C6" t="s">
-        <v>118</v>
-      </c>
-      <c r="D6" t="s">
-        <v>119</v>
-      </c>
-      <c r="E6" t="s">
-        <v>120</v>
-      </c>
-      <c r="F6" t="s">
-        <v>93</v>
-      </c>
-      <c r="G6" t="s">
-        <v>122</v>
-      </c>
-      <c r="H6" t="s">
-        <v>123</v>
-      </c>
-      <c r="I6" t="s">
-        <v>28</v>
-      </c>
-      <c r="J6" t="s">
-        <v>97</v>
-      </c>
-      <c r="K6" t="s">
-        <v>30</v>
-      </c>
-      <c r="L6" t="s">
-        <v>127</v>
-      </c>
-      <c r="M6" t="s">
-        <v>129</v>
-      </c>
-      <c r="N6" t="s">
-        <v>131</v>
-      </c>
-      <c r="O6" t="s">
-        <v>134</v>
-      </c>
-      <c r="P6" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>137</v>
-      </c>
-      <c r="R6" t="s">
-        <v>140</v>
-      </c>
-      <c r="S6" t="s">
-        <v>142</v>
-      </c>
-      <c r="T6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A7" s="2">
-        <v>15</v>
-      </c>
-      <c r="B7" t="s">
-        <v>148</v>
-      </c>
-      <c r="C7" t="s">
-        <v>149</v>
-      </c>
-      <c r="D7" t="s">
-        <v>133</v>
-      </c>
-      <c r="E7" t="s">
-        <v>152</v>
-      </c>
-      <c r="F7" t="s">
-        <v>154</v>
-      </c>
-      <c r="G7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H7" t="s">
-        <v>139</v>
-      </c>
-      <c r="I7" t="s">
-        <v>155</v>
-      </c>
-      <c r="J7" t="s">
-        <v>46</v>
-      </c>
-      <c r="K7" t="s">
-        <v>95</v>
-      </c>
-      <c r="L7" t="s">
-        <v>156</v>
-      </c>
-      <c r="M7" t="s">
-        <v>157</v>
-      </c>
-      <c r="N7" t="s">
-        <v>158</v>
-      </c>
-      <c r="O7" t="s">
-        <v>160</v>
-      </c>
-      <c r="P7" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>123</v>
-      </c>
-      <c r="R7" t="s">
-        <v>166</v>
-      </c>
-      <c r="S7" t="s">
-        <v>168</v>
-      </c>
-      <c r="T7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A8" s="2">
-        <v>16</v>
-      </c>
-      <c r="B8" t="s">
-        <v>173</v>
-      </c>
-      <c r="C8" t="s">
-        <v>174</v>
-      </c>
-      <c r="D8" t="s">
-        <v>175</v>
-      </c>
-      <c r="E8" t="s">
-        <v>177</v>
-      </c>
-      <c r="F8" t="s">
-        <v>93</v>
-      </c>
-      <c r="G8" t="s">
-        <v>180</v>
-      </c>
-      <c r="H8" t="s">
-        <v>182</v>
-      </c>
-      <c r="I8" t="s">
-        <v>28</v>
-      </c>
-      <c r="J8" t="s">
-        <v>44</v>
-      </c>
-      <c r="K8" t="s">
-        <v>30</v>
-      </c>
-      <c r="L8" t="s">
-        <v>185</v>
-      </c>
-      <c r="M8" t="s">
-        <v>186</v>
-      </c>
-      <c r="N8" t="s">
-        <v>187</v>
-      </c>
-      <c r="O8" t="s">
-        <v>188</v>
-      </c>
-      <c r="P8" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>190</v>
-      </c>
-      <c r="R8" t="s">
-        <v>191</v>
-      </c>
-      <c r="S8" t="s">
-        <v>192</v>
-      </c>
-      <c r="T8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A9" s="2">
-        <v>17</v>
-      </c>
-      <c r="B9" t="s">
-        <v>193</v>
-      </c>
-      <c r="C9" t="s">
-        <v>194</v>
-      </c>
-      <c r="D9" t="s">
-        <v>195</v>
-      </c>
-      <c r="E9" t="s">
-        <v>196</v>
-      </c>
-      <c r="F9" t="s">
-        <v>197</v>
-      </c>
-      <c r="G9" t="s">
-        <v>183</v>
-      </c>
-      <c r="H9" t="s">
-        <v>198</v>
-      </c>
-      <c r="I9" t="s">
-        <v>155</v>
-      </c>
-      <c r="J9" t="s">
-        <v>199</v>
-      </c>
-      <c r="K9" t="s">
-        <v>139</v>
-      </c>
-      <c r="L9" t="s">
-        <v>200</v>
-      </c>
-      <c r="M9" t="s">
-        <v>201</v>
-      </c>
-      <c r="N9" t="s">
-        <v>202</v>
-      </c>
-      <c r="O9" t="s">
-        <v>203</v>
-      </c>
-      <c r="P9" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>205</v>
-      </c>
-      <c r="R9" t="s">
-        <v>206</v>
-      </c>
-      <c r="S9" t="s">
-        <v>207</v>
-      </c>
-      <c r="T9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A10" s="2">
-        <v>18</v>
-      </c>
-      <c r="B10" t="s">
-        <v>208</v>
-      </c>
-      <c r="C10" t="s">
-        <v>209</v>
-      </c>
-      <c r="D10" t="s">
-        <v>210</v>
-      </c>
-      <c r="E10" t="s">
-        <v>211</v>
-      </c>
-      <c r="F10" t="s">
-        <v>212</v>
-      </c>
-      <c r="G10" t="s">
-        <v>74</v>
-      </c>
-      <c r="H10" t="s">
-        <v>213</v>
-      </c>
-      <c r="I10" t="s">
-        <v>155</v>
-      </c>
-      <c r="J10" t="s">
-        <v>76</v>
-      </c>
-      <c r="K10" t="s">
-        <v>46</v>
-      </c>
-      <c r="L10" t="s">
-        <v>214</v>
-      </c>
-      <c r="M10" t="s">
-        <v>215</v>
-      </c>
-      <c r="N10" t="s">
-        <v>216</v>
-      </c>
-      <c r="O10" t="s">
-        <v>217</v>
-      </c>
-      <c r="P10" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>219</v>
-      </c>
-      <c r="R10" t="s">
-        <v>220</v>
-      </c>
-      <c r="S10" t="s">
-        <v>221</v>
-      </c>
-      <c r="T10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A11" s="2">
-        <v>19</v>
-      </c>
-      <c r="B11" t="s">
-        <v>222</v>
-      </c>
-      <c r="C11" t="s">
-        <v>223</v>
-      </c>
-      <c r="D11" t="s">
-        <v>58</v>
-      </c>
-      <c r="E11" t="s">
-        <v>224</v>
-      </c>
-      <c r="F11" t="s">
-        <v>225</v>
-      </c>
-      <c r="G11" t="s">
-        <v>226</v>
-      </c>
-      <c r="H11" t="s">
-        <v>227</v>
-      </c>
-      <c r="I11" t="s">
-        <v>28</v>
-      </c>
-      <c r="J11" t="s">
-        <v>48</v>
-      </c>
-      <c r="K11" t="s">
-        <v>30</v>
-      </c>
-      <c r="L11" t="s">
-        <v>228</v>
-      </c>
-      <c r="M11" t="s">
-        <v>229</v>
-      </c>
-      <c r="N11" t="s">
-        <v>230</v>
-      </c>
-      <c r="O11" t="s">
-        <v>231</v>
-      </c>
-      <c r="P11" t="s">
-        <v>232</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>233</v>
-      </c>
-      <c r="R11" t="s">
-        <v>234</v>
-      </c>
-      <c r="S11" t="s">
-        <v>235</v>
-      </c>
-      <c r="T11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A12" s="2">
-        <v>20</v>
-      </c>
-      <c r="B12" t="s">
-        <v>236</v>
-      </c>
-      <c r="C12" t="s">
-        <v>237</v>
-      </c>
-      <c r="D12" t="s">
-        <v>238</v>
-      </c>
-      <c r="E12" t="s">
-        <v>239</v>
-      </c>
-      <c r="F12" t="s">
-        <v>240</v>
-      </c>
-      <c r="G12" t="s">
-        <v>241</v>
-      </c>
-      <c r="H12" t="s">
-        <v>242</v>
-      </c>
-      <c r="I12" t="s">
-        <v>28</v>
-      </c>
-      <c r="J12" t="s">
-        <v>48</v>
-      </c>
-      <c r="K12" t="s">
-        <v>30</v>
-      </c>
-      <c r="L12" t="s">
-        <v>243</v>
-      </c>
-      <c r="M12" t="s">
-        <v>244</v>
-      </c>
-      <c r="N12" t="s">
-        <v>245</v>
-      </c>
-      <c r="O12" t="s">
-        <v>55</v>
-      </c>
-      <c r="P12" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>247</v>
-      </c>
-      <c r="R12" t="s">
-        <v>248</v>
-      </c>
-      <c r="S12" t="s">
-        <v>249</v>
-      </c>
-      <c r="T12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" ht="15.75" customHeight="1"/>
-    <row r="14" spans="1:20" ht="15.75" customHeight="1"/>
-    <row r="15" spans="1:20" ht="15.75" customHeight="1"/>
-    <row r="16" spans="1:20" ht="15.75" customHeight="1"/>
+    <row r="13" ht="15.75" customHeight="1"/>
+    <row r="14" ht="15.75" customHeight="1"/>
+    <row r="15" ht="15.75" customHeight="1"/>
+    <row r="16" ht="15.75" customHeight="1"/>
     <row r="17" ht="15.75" customHeight="1"/>
     <row r="18" ht="15.75" customHeight="1"/>
     <row r="19" ht="15.75" customHeight="1"/>
@@ -2589,23 +2561,24 @@
     <row r="705" ht="15.75" customHeight="1"/>
     <row r="706" ht="15.75" customHeight="1"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2619,6 +2592,551 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="X3" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="X4" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="X5" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="X6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="W7" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1"/>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -2640,7 +3158,7 @@
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>11</v>
@@ -2675,69 +3193,69 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2">
       <c r="A2" s="3">
-        <v>7</v>
+        <v>7.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="K2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="S2" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="T2" s="1" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="U2" s="4" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
@@ -2745,69 +3263,69 @@
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3">
       <c r="A3" s="3">
-        <v>8</v>
+        <v>8.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="I3" s="1" t="s">
+      <c r="L3" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="U3" s="4" t="s">
         <v>101</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="U3" s="4" t="s">
-        <v>80</v>
       </c>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
@@ -2815,69 +3333,69 @@
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4">
       <c r="A4" s="3">
-        <v>9</v>
+        <v>9.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>121</v>
+        <v>157</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>124</v>
+        <v>161</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>125</v>
+        <v>162</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>126</v>
+        <v>163</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>128</v>
+        <v>167</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>130</v>
+        <v>170</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>132</v>
+        <v>172</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>101</v>
+        <v>129</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>136</v>
+        <v>177</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>138</v>
+        <v>179</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>141</v>
+        <v>182</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>143</v>
+        <v>185</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>144</v>
+        <v>186</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>145</v>
+        <v>187</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>146</v>
+        <v>189</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>147</v>
+        <v>190</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>150</v>
+        <v>194</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>151</v>
+        <v>195</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>153</v>
+        <v>197</v>
       </c>
       <c r="U4" s="4" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
@@ -2885,69 +3403,69 @@
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5">
       <c r="A5" s="3">
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>122</v>
-      </c>
       <c r="K5" s="1" t="s">
-        <v>167</v>
+        <v>219</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>169</v>
+        <v>221</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>170</v>
+        <v>224</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>171</v>
+        <v>226</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>172</v>
+        <v>227</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>176</v>
+        <v>233</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>178</v>
+        <v>235</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>179</v>
+        <v>236</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>181</v>
+        <v>239</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>184</v>
+        <v>242</v>
       </c>
       <c r="U5" s="4" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
@@ -2956,6 +3474,6 @@
       <c r="Z5" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>